--- a/Sprint_backlog.xlsx
+++ b/Sprint_backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Sprint Backlog Sprint 1</t>
   </si>
@@ -61,6 +61,18 @@
   </si>
   <si>
     <t>Skriva php för att ändra medlemsuppgifter</t>
+  </si>
+  <si>
+    <t>Skattad tid</t>
+  </si>
+  <si>
+    <t>Ideal tid</t>
+  </si>
+  <si>
+    <t>Total tid</t>
+  </si>
+  <si>
+    <t>1 timme överförs till nästa sprint</t>
   </si>
 </sst>
 </file>
@@ -84,7 +96,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -92,12 +104,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E9"/>
+  <dimension ref="A2:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,12 +433,12 @@
     <col min="1" max="1" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -428,37 +451,101 @@
       <c r="E4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Sprint_backlog.xlsx
+++ b/Sprint_backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Sprint Backlog Sprint 1</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>Total tid</t>
-  </si>
-  <si>
-    <t>1 timme överförs till nästa sprint</t>
   </si>
 </sst>
 </file>
@@ -133,6 +130,183 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 1'!$C$10:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 1'!$C$11:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="55331456"/>
+        <c:axId val="55337344"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="55331456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="55337344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="55337344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="55331456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3752850</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -422,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H11"/>
+  <dimension ref="A2:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,12 +607,12 @@
     <col min="1" max="1" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -455,7 +629,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -475,7 +649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -495,7 +669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -515,7 +689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -529,27 +703,49 @@
         <v>4</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="1">
         <v>3</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="2">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2">
+        <v>6</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="C11" s="2">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Sprint_backlog.xlsx
+++ b/Sprint_backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Sprint Backlog Sprint 1</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Total tid</t>
+  </si>
+  <si>
+    <t>Gör sidorna användarvänligare genom att skapa bekräftelsesidor</t>
+  </si>
+  <si>
+    <t>Extra dag</t>
   </si>
 </sst>
 </file>
@@ -93,7 +99,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -110,14 +116,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -220,11 +237,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="55331456"/>
-        <c:axId val="55337344"/>
+        <c:axId val="96975488"/>
+        <c:axId val="96985472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="55331456"/>
+        <c:axId val="96975488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -233,7 +250,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55337344"/>
+        <c:crossAx val="96985472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -241,7 +258,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55337344"/>
+        <c:axId val="96985472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -252,7 +269,155 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55331456"/>
+        <c:crossAx val="96975488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 2'!$C$13:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 2'!$C$14:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="48265088"/>
+        <c:axId val="48266624"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="48265088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="48266624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="48266624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="48265088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -292,6 +457,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3981450</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -598,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,23 +951,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E10"/>
+  <dimension ref="A2:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -780,34 +980,188 @@
       <c r="E4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="4">
+        <v>9</v>
+      </c>
+      <c r="D13" s="4">
+        <v>7</v>
+      </c>
+      <c r="E13" s="4">
+        <v>4</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
